--- a/grafy/pocet-resitelu-6-ser-vs-vsechny.xlsx
+++ b/grafy/pocet-resitelu-6-ser-vs-vsechny.xlsx
@@ -31,7 +31,7 @@
     <t>celý ročník</t>
   </si>
   <si>
-    <t>6. série</t>
+    <t>poslední série</t>
   </si>
 </sst>
 </file>
@@ -335,10 +335,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1077475244694112"/>
+          <c:x val="0.10774752446941122"/>
           <c:y val="4.3411625037253432E-2"/>
-          <c:w val="0.85304423871319479"/>
-          <c:h val="0.77093180345958101"/>
+          <c:w val="0.85304423871319501"/>
+          <c:h val="0.77093180345958134"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -547,7 +547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6. série</c:v>
+                  <c:v>poslední série</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -733,11 +733,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="89655168"/>
-        <c:axId val="47448448"/>
+        <c:axId val="95143040"/>
+        <c:axId val="82133376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89655168"/>
+        <c:axId val="95143040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -764,13 +764,13 @@
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47448448"/>
+        <c:crossAx val="82133376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47448448"/>
+        <c:axId val="82133376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -798,7 +798,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89655168"/>
+        <c:crossAx val="95143040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -809,10 +809,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11315108096569308"/>
-          <c:y val="9.3028561365310194E-2"/>
-          <c:w val="0.17869978220399613"/>
-          <c:h val="0.14141090090467318"/>
+          <c:x val="0.1131510809656931"/>
+          <c:y val="9.3028561365310222E-2"/>
+          <c:w val="0.19843662771733453"/>
+          <c:h val="0.1414109009046732"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -820,8 +820,539 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="cs-CZ"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13153290934786999"/>
+          <c:y val="3.2319013367921354E-2"/>
+          <c:w val="0.83566912309038288"/>
+          <c:h val="0.861891248618881"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>celý ročník</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$AB$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>poslední série</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AB$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="141812480"/>
+        <c:axId val="141814400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141812480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Ročník FYKOSu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141814400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141814400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Počet řešitelů </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141812480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69007419745608722"/>
+          <c:y val="5.9750634332106159E-2"/>
+          <c:w val="0.26253920183054041"/>
+          <c:h val="0.11035151388106437"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157480314965" l="0.70866141732283472" r="0.70866141732283472" t="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -830,16 +1361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -853,6 +1384,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1148,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
